--- a/results/GPT.xlsx
+++ b/results/GPT.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P149"/>
+  <dimension ref="A1:P198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7594,6 +7594,2336 @@
       </c>
       <c r="P149" t="n">
         <v>-20.48959701930176</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>48</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>0.6357972025871277</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.639818646586119</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>3.265735793890394</v>
+      </c>
+      <c r="H150" t="n">
+        <v>35</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-8.907080562341079</v>
+      </c>
+      <c r="J150" t="n">
+        <v>17</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>13</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-7.048013074455415</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.6259171473042748</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-9.687831721041533</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-10.31374886834581</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>79</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>0.6203619241714478</v>
+      </c>
+      <c r="E151" t="n">
+        <v>21.27176678280229</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>21.27176678280229</v>
+      </c>
+      <c r="H151" t="n">
+        <v>52</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.5817343778144193</v>
+      </c>
+      <c r="J151" t="n">
+        <v>21</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>17</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-0.5817286138878891</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-21.85349539669018</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-21.85349539669018</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>118</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>0.7026170492172241</v>
+      </c>
+      <c r="E152" t="n">
+        <v>8.787476168476339</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>13.33755176256991</v>
+      </c>
+      <c r="H152" t="n">
+        <v>41</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.5155260987526423</v>
+      </c>
+      <c r="J152" t="n">
+        <v>34</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>4.550075594093567</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>235</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>0.7689074277877808</v>
+      </c>
+      <c r="E153" t="n">
+        <v>29.15680048396426</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>29.15680048396426</v>
+      </c>
+      <c r="H153" t="n">
+        <v>52</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-6.166237882520772</v>
+      </c>
+      <c r="J153" t="n">
+        <v>13</v>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>383</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>1.081850409507752</v>
+      </c>
+      <c r="E154" t="n">
+        <v>-8.896567675116177</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>4.362671578504055</v>
+      </c>
+      <c r="H154" t="n">
+        <v>36</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-8.896567675116168</v>
+      </c>
+      <c r="J154" t="n">
+        <v>52</v>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>13.25923925362023</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>418</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>1.104853749275208</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5.480004984794777</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>8.543770085371708</v>
+      </c>
+      <c r="H155" t="n">
+        <v>48</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-10.79336461238095</v>
+      </c>
+      <c r="J155" t="n">
+        <v>17</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>3.063765100576931</v>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>498</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>1.387189388275146</v>
+      </c>
+      <c r="E156" t="n">
+        <v>23.38975995369089</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>23.38975995369089</v>
+      </c>
+      <c r="H156" t="n">
+        <v>52</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-7.196978169791423</v>
+      </c>
+      <c r="J156" t="n">
+        <v>7</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>518</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>1.454602479934692</v>
+      </c>
+      <c r="E157" t="n">
+        <v>26.23179307807105</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>27.4734164393149</v>
+      </c>
+      <c r="H157" t="n">
+        <v>48</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-3.676471056437008</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1.24162336124385</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>672</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>1.935750961303711</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.390760190010552</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9.898564729201453</v>
+      </c>
+      <c r="H158" t="n">
+        <v>52</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-6.810045529424428</v>
+      </c>
+      <c r="J158" t="n">
+        <v>8</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>4</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-2.867407682204296</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3.507804539190901</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-9.258167872214848</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-12.76597241140575</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>698</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>1.988086819648743</v>
+      </c>
+      <c r="E159" t="n">
+        <v>8.926616994700742</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>10.87173535584955</v>
+      </c>
+      <c r="H159" t="n">
+        <v>52</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-5.831220369019597</v>
+      </c>
+      <c r="J159" t="n">
+        <v>3</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>39</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2.798459772909013</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1.945118361148806</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-6.128157221791729</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-8.073275582940536</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>705</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>1.98016619682312</v>
+      </c>
+      <c r="E160" t="n">
+        <v>8.971696671775392</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>12.87762466851861</v>
+      </c>
+      <c r="H160" t="n">
+        <v>46</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-3.739390322941653</v>
+      </c>
+      <c r="J160" t="n">
+        <v>5</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>32</v>
+      </c>
+      <c r="M160" t="n">
+        <v>3.20965143360017</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3.905927996743221</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-5.762045238175222</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-9.667973234918444</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>707</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>2.030751466751098</v>
+      </c>
+      <c r="E161" t="n">
+        <v>7.862389227749824</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>10.06588467661251</v>
+      </c>
+      <c r="H161" t="n">
+        <v>44</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-6.137206601137441</v>
+      </c>
+      <c r="J161" t="n">
+        <v>3</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>30</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.6387370886292104</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2.203495448862689</v>
+      </c>
+      <c r="O161" t="n">
+        <v>-7.223652139120613</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-9.427147587983303</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>724</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>2.059460163116455</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.20676957472344</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>14.93401568907056</v>
+      </c>
+      <c r="H162" t="n">
+        <v>49</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-2.173901037708653</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>13</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-0.7641581930636274</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2.727246114347126</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-12.97092776778706</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-15.69817388213419</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>744</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>2.150086641311645</v>
+      </c>
+      <c r="E163" t="n">
+        <v>14.73807669605531</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>16.63771412690942</v>
+      </c>
+      <c r="H163" t="n">
+        <v>52</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-3.180208517997096</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>14</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2.217757879749498e-05</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1.899637430854112</v>
+      </c>
+      <c r="O163" t="n">
+        <v>-14.73805451847651</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-16.63769194933062</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>749</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>2.181024312973022</v>
+      </c>
+      <c r="E164" t="n">
+        <v>16.61668240255473</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>20.42768567065996</v>
+      </c>
+      <c r="H164" t="n">
+        <v>52</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-3.546124040440453</v>
+      </c>
+      <c r="J164" t="n">
+        <v>9</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>9</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-1.418470882704047</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3.811003268105225</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-18.03515328525878</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-21.846156553364</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>771</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>2.270734071731567</v>
+      </c>
+      <c r="E165" t="n">
+        <v>8.62439258352636</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>15.66995610476392</v>
+      </c>
+      <c r="H165" t="n">
+        <v>30</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-2.869836814579445</v>
+      </c>
+      <c r="J165" t="n">
+        <v>14</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>33</v>
+      </c>
+      <c r="M165" t="n">
+        <v>9.447216753958806</v>
+      </c>
+      <c r="N165" t="n">
+        <v>7.045563521237556</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0.8228241704324457</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-6.22273935080511</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>799</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>2.568374395370483</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.205526401704779</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>7.726346962849563</v>
+      </c>
+      <c r="H166" t="n">
+        <v>43</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-10.69878510947346</v>
+      </c>
+      <c r="J166" t="n">
+        <v>15</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>5</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-3.236255357718228</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1.520820561144784</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-9.441781759423007</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-10.96260232056779</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>826</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>2.509694337844849</v>
+      </c>
+      <c r="E167" t="n">
+        <v>33.73820028668813</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>38.14716477345591</v>
+      </c>
+      <c r="H167" t="n">
+        <v>50</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-2.061856456855281</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="b">
+        <v>0</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>4.408964486767772</v>
+      </c>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>858</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>3.15704083442688</v>
+      </c>
+      <c r="E168" t="n">
+        <v>14.78361093974447</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>15.98868488743486</v>
+      </c>
+      <c r="H168" t="n">
+        <v>52</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-2.266284028563584</v>
+      </c>
+      <c r="J168" t="n">
+        <v>3</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>43</v>
+      </c>
+      <c r="M168" t="n">
+        <v>4.386142780900388</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1.205073947690394</v>
+      </c>
+      <c r="O168" t="n">
+        <v>-10.39746815884408</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-11.60254210653448</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>914</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>3.70936393737793</v>
+      </c>
+      <c r="E169" t="n">
+        <v>23.49832242804437</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>25.95734896816516</v>
+      </c>
+      <c r="H169" t="n">
+        <v>52</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-5.641012612390927</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
+        <v>2.459026540120785</v>
+      </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>929</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>3.956658363342285</v>
+      </c>
+      <c r="E170" t="n">
+        <v>30.6313280983172</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>30.89524048238518</v>
+      </c>
+      <c r="H170" t="n">
+        <v>52</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-4.466533671332313</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3</v>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>0.2639123840679822</v>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>944</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>4.015568256378174</v>
+      </c>
+      <c r="E171" t="n">
+        <v>27.41479092729268</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>46.6570632914803</v>
+      </c>
+      <c r="H171" t="n">
+        <v>48</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-3.422973584040625</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
+        <v>19.24227236418762</v>
+      </c>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>968</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>4.743162155151367</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.171694514559574</v>
+      </c>
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>24.16009165685361</v>
+      </c>
+      <c r="H172" t="n">
+        <v>24</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-4.700856559724629</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>45</v>
+      </c>
+      <c r="M172" t="n">
+        <v>5.472009419398476</v>
+      </c>
+      <c r="N172" t="n">
+        <v>22.98839714229403</v>
+      </c>
+      <c r="O172" t="n">
+        <v>4.300314904838903</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-18.68808223745513</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>980</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>5.074662685394287</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-5.212557126774481</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>16.0493779462223</v>
+      </c>
+      <c r="H173" t="n">
+        <v>12</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-8.187457299266161</v>
+      </c>
+      <c r="J173" t="n">
+        <v>40</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>33</v>
+      </c>
+      <c r="M173" t="n">
+        <v>-1.417911983446496</v>
+      </c>
+      <c r="N173" t="n">
+        <v>21.26193507299678</v>
+      </c>
+      <c r="O173" t="n">
+        <v>3.794645143327985</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-17.4672899296688</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>5.32477331161499</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-35.25292564363892</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>8.06451687997389</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-41.84970188479225</v>
+      </c>
+      <c r="J174" t="n">
+        <v>41</v>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>3</v>
+      </c>
+      <c r="M174" t="n">
+        <v>-6.048424180873064</v>
+      </c>
+      <c r="N174" t="n">
+        <v>43.31744252361281</v>
+      </c>
+      <c r="O174" t="n">
+        <v>29.20450146276585</v>
+      </c>
+      <c r="P174" t="n">
+        <v>-14.11294106084695</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1114</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>1.103216409683228</v>
+      </c>
+      <c r="E175" t="n">
+        <v>7.971570433683254</v>
+      </c>
+      <c r="F175" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>35.9517879553365</v>
+      </c>
+      <c r="H175" t="n">
+        <v>17</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-15.09434522396195</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3</v>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>28</v>
+      </c>
+      <c r="M175" t="n">
+        <v>13.02486911701938</v>
+      </c>
+      <c r="N175" t="n">
+        <v>27.98021752165324</v>
+      </c>
+      <c r="O175" t="n">
+        <v>5.053298683336125</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-22.92691883831712</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1178</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>1.337287664413452</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4.737964457422039</v>
+      </c>
+      <c r="F176" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>12.79474893935162</v>
+      </c>
+      <c r="H176" t="n">
+        <v>43</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-9.624088616058229</v>
+      </c>
+      <c r="J176" t="n">
+        <v>50</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>9</v>
+      </c>
+      <c r="M176" t="n">
+        <v>-6.35708811085627</v>
+      </c>
+      <c r="N176" t="n">
+        <v>8.056784481929576</v>
+      </c>
+      <c r="O176" t="n">
+        <v>-11.09505256827831</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-19.15183705020788</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1201</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="n">
+        <v>1.38847005367279</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4.046068580003437</v>
+      </c>
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>13.41018613362132</v>
+      </c>
+      <c r="H177" t="n">
+        <v>44</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-12.95556491537384</v>
+      </c>
+      <c r="J177" t="n">
+        <v>27</v>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>6</v>
+      </c>
+      <c r="M177" t="n">
+        <v>-1.146554519657766</v>
+      </c>
+      <c r="N177" t="n">
+        <v>9.364117553617881</v>
+      </c>
+      <c r="O177" t="n">
+        <v>-5.192623099661203</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-14.55674065327908</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1213</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="n">
+        <v>1.460356473922729</v>
+      </c>
+      <c r="E178" t="n">
+        <v>9.207461528879401</v>
+      </c>
+      <c r="F178" t="b">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>9.877445318449968</v>
+      </c>
+      <c r="H178" t="n">
+        <v>52</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-17.24034945438707</v>
+      </c>
+      <c r="J178" t="n">
+        <v>15</v>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>38</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2.221869760867397</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.6699837895705674</v>
+      </c>
+      <c r="O178" t="n">
+        <v>-6.985591768012004</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-7.655575557582571</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="n">
+        <v>1.466230392456055</v>
+      </c>
+      <c r="E179" t="n">
+        <v>7.957725889685138</v>
+      </c>
+      <c r="F179" t="b">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>12.69566793939508</v>
+      </c>
+      <c r="H179" t="n">
+        <v>51</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-17.57189587959595</v>
+      </c>
+      <c r="J179" t="n">
+        <v>8</v>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>31</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1.812355036313266</v>
+      </c>
+      <c r="N179" t="n">
+        <v>4.73794204970994</v>
+      </c>
+      <c r="O179" t="n">
+        <v>-6.145370853371872</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-10.88331290308181</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1244</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>1.540958523750305</v>
+      </c>
+      <c r="E180" t="n">
+        <v>15.48543275103843</v>
+      </c>
+      <c r="F180" t="b">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>19.19421521260832</v>
+      </c>
+      <c r="H180" t="n">
+        <v>40</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-6.250007252544923</v>
+      </c>
+      <c r="J180" t="n">
+        <v>9</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>7</v>
+      </c>
+      <c r="M180" t="n">
+        <v>-3.124992022200601</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3.708782461569886</v>
+      </c>
+      <c r="O180" t="n">
+        <v>-18.61042477323903</v>
+      </c>
+      <c r="P180" t="n">
+        <v>-22.31920723480892</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="n">
+        <v>1.594818234443665</v>
+      </c>
+      <c r="E181" t="n">
+        <v>32.61185180035883</v>
+      </c>
+      <c r="F181" t="b">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>36.8268865272163</v>
+      </c>
+      <c r="H181" t="n">
+        <v>52</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-3.067487368597087</v>
+      </c>
+      <c r="J181" t="n">
+        <v>2</v>
+      </c>
+      <c r="K181" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
+        <v>4.215034726857468</v>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1306</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="n">
+        <v>2.006328582763672</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-1.816883402700272</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>10.39040951138077</v>
+      </c>
+      <c r="H182" t="n">
+        <v>14</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-11.63535292703605</v>
+      </c>
+      <c r="J182" t="n">
+        <v>45</v>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>20</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.2125689470612058</v>
+      </c>
+      <c r="N182" t="n">
+        <v>12.20729291408104</v>
+      </c>
+      <c r="O182" t="n">
+        <v>2.029452349761478</v>
+      </c>
+      <c r="P182" t="n">
+        <v>-10.17784056431957</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1378</v>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>2.161391735076904</v>
+      </c>
+      <c r="E183" t="n">
+        <v>14.57162920573681</v>
+      </c>
+      <c r="F183" t="b">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>30.29190506808202</v>
+      </c>
+      <c r="H183" t="n">
+        <v>32</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-2.531649160606667</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
+        <v>15.72027586234521</v>
+      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="n">
+        <v>2.479167461395264</v>
+      </c>
+      <c r="E184" t="n">
+        <v>13.86339720929658</v>
+      </c>
+      <c r="F184" t="b">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>18.15113592312971</v>
+      </c>
+      <c r="H184" t="n">
+        <v>52</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-2.267571612077308</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
+        <v>4.287738713833132</v>
+      </c>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1447</v>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="n">
+        <v>2.799241781234741</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.853268552222404</v>
+      </c>
+      <c r="F185" t="b">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>26.26543324513276</v>
+      </c>
+      <c r="H185" t="n">
+        <v>39</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-6.540099629294861</v>
+      </c>
+      <c r="J185" t="n">
+        <v>4</v>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>26</v>
+      </c>
+      <c r="M185" t="n">
+        <v>3.941394126551599</v>
+      </c>
+      <c r="N185" t="n">
+        <v>21.41216469291036</v>
+      </c>
+      <c r="O185" t="n">
+        <v>-0.9118744256708045</v>
+      </c>
+      <c r="P185" t="n">
+        <v>-22.32403911858116</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1457</v>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="n">
+        <v>2.822864294052124</v>
+      </c>
+      <c r="E186" t="n">
+        <v>10.10492357611951</v>
+      </c>
+      <c r="F186" t="b">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>25.20880901367034</v>
+      </c>
+      <c r="H186" t="n">
+        <v>29</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-4.857000158490299</v>
+      </c>
+      <c r="J186" t="n">
+        <v>3</v>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>16</v>
+      </c>
+      <c r="M186" t="n">
+        <v>3.071583657736422</v>
+      </c>
+      <c r="N186" t="n">
+        <v>15.10388543755082</v>
+      </c>
+      <c r="O186" t="n">
+        <v>-7.033339918383092</v>
+      </c>
+      <c r="P186" t="n">
+        <v>-22.13722535593391</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1463</v>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="n">
+        <v>2.951913833618164</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3.739581805482237</v>
+      </c>
+      <c r="F187" t="b">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>19.73502486427958</v>
+      </c>
+      <c r="H187" t="n">
+        <v>23</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-8.314801755139683</v>
+      </c>
+      <c r="J187" t="n">
+        <v>40</v>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>10</v>
+      </c>
+      <c r="M187" t="n">
+        <v>-1.434421992526749</v>
+      </c>
+      <c r="N187" t="n">
+        <v>15.99544305879735</v>
+      </c>
+      <c r="O187" t="n">
+        <v>-5.174003798008985</v>
+      </c>
+      <c r="P187" t="n">
+        <v>-21.16944685680633</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1485</v>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="n">
+        <v>3.423249244689941</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-8.88804043529848</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>3.24912122999534</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>-20.9386212654987</v>
+      </c>
+      <c r="J188" t="n">
+        <v>18</v>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>14</v>
+      </c>
+      <c r="M188" t="n">
+        <v>-14.2599240514863</v>
+      </c>
+      <c r="N188" t="n">
+        <v>12.13716166529382</v>
+      </c>
+      <c r="O188" t="n">
+        <v>-5.371883616187825</v>
+      </c>
+      <c r="P188" t="n">
+        <v>-17.50904528148164</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1522</v>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="n">
+        <v>3.258441925048828</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-3.396462517897261</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>10.04845811832168</v>
+      </c>
+      <c r="H189" t="n">
+        <v>37</v>
+      </c>
+      <c r="I189" t="n">
+        <v>-7.184462397250235</v>
+      </c>
+      <c r="J189" t="n">
+        <v>13</v>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>10</v>
+      </c>
+      <c r="M189" t="n">
+        <v>-1.359204021161791</v>
+      </c>
+      <c r="N189" t="n">
+        <v>13.44492063621894</v>
+      </c>
+      <c r="O189" t="n">
+        <v>2.037258496735469</v>
+      </c>
+      <c r="P189" t="n">
+        <v>-11.40766213948347</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1553</v>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="n">
+        <v>3.326489686965942</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.970690442707368</v>
+      </c>
+      <c r="F190" t="b">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>10.31537944931282</v>
+      </c>
+      <c r="H190" t="n">
+        <v>46</v>
+      </c>
+      <c r="I190" t="n">
+        <v>-8.367146096674338</v>
+      </c>
+      <c r="J190" t="n">
+        <v>21</v>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>13</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.01755981751837635</v>
+      </c>
+      <c r="N190" t="n">
+        <v>6.344689006605453</v>
+      </c>
+      <c r="O190" t="n">
+        <v>-3.953130625188992</v>
+      </c>
+      <c r="P190" t="n">
+        <v>-10.29781963179444</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="n">
+        <v>3.453249931335449</v>
+      </c>
+      <c r="E191" t="n">
+        <v>26.55086516275223</v>
+      </c>
+      <c r="F191" t="b">
+        <v>1</v>
+      </c>
+      <c r="G191" t="n">
+        <v>27.96371720617113</v>
+      </c>
+      <c r="H191" t="n">
+        <v>52</v>
+      </c>
+      <c r="I191" t="n">
+        <v>-4.774668563789779</v>
+      </c>
+      <c r="J191" t="n">
+        <v>16</v>
+      </c>
+      <c r="K191" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1.412852043418898</v>
+      </c>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1617</v>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="n">
+        <v>3.993744373321533</v>
+      </c>
+      <c r="E192" t="n">
+        <v>8.504781034277521</v>
+      </c>
+      <c r="F192" t="b">
+        <v>1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>15.82555825287779</v>
+      </c>
+      <c r="H192" t="n">
+        <v>23</v>
+      </c>
+      <c r="I192" t="n">
+        <v>-4.712041536261137</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="b">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>40</v>
+      </c>
+      <c r="M192" t="n">
+        <v>7.628653085210906</v>
+      </c>
+      <c r="N192" t="n">
+        <v>7.320777218600265</v>
+      </c>
+      <c r="O192" t="n">
+        <v>-0.876127949066615</v>
+      </c>
+      <c r="P192" t="n">
+        <v>-8.19690516766688</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1672</v>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="n">
+        <v>4.544610977172852</v>
+      </c>
+      <c r="E193" t="n">
+        <v>-32.25461506661602</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2.40384777034299</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>-54.80769444877771</v>
+      </c>
+      <c r="J193" t="n">
+        <v>6</v>
+      </c>
+      <c r="K193" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>47</v>
+      </c>
+      <c r="M193" t="n">
+        <v>-26.84154640667986</v>
+      </c>
+      <c r="N193" t="n">
+        <v>34.65846283695901</v>
+      </c>
+      <c r="O193" t="n">
+        <v>5.413068659936158</v>
+      </c>
+      <c r="P193" t="n">
+        <v>-29.24539417702285</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1711</v>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="n">
+        <v>3.481314420700073</v>
+      </c>
+      <c r="E194" t="n">
+        <v>15.9912369053694</v>
+      </c>
+      <c r="F194" t="b">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>21.89290933905442</v>
+      </c>
+      <c r="H194" t="n">
+        <v>50</v>
+      </c>
+      <c r="I194" t="n">
+        <v>-12.41969780507415</v>
+      </c>
+      <c r="J194" t="n">
+        <v>13</v>
+      </c>
+      <c r="K194" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>8</v>
+      </c>
+      <c r="M194" t="n">
+        <v>-4.496787392638279</v>
+      </c>
+      <c r="N194" t="n">
+        <v>5.901672433685016</v>
+      </c>
+      <c r="O194" t="n">
+        <v>-20.48802429800768</v>
+      </c>
+      <c r="P194" t="n">
+        <v>-26.38969673169269</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1733</v>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="n">
+        <v>3.697361946105957</v>
+      </c>
+      <c r="E195" t="n">
+        <v>11.41066530133751</v>
+      </c>
+      <c r="F195" t="b">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>19.47230616683194</v>
+      </c>
+      <c r="H195" t="n">
+        <v>38</v>
+      </c>
+      <c r="I195" t="n">
+        <v>-6.237022761664659</v>
+      </c>
+      <c r="J195" t="n">
+        <v>5</v>
+      </c>
+      <c r="K195" t="b">
+        <v>0</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>8.061640865494423</v>
+      </c>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1824</v>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="n">
+        <v>3.774445295333862</v>
+      </c>
+      <c r="E196" t="n">
+        <v>11.34024135043453</v>
+      </c>
+      <c r="F196" t="b">
+        <v>1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>12.17828250703041</v>
+      </c>
+      <c r="H196" t="n">
+        <v>52</v>
+      </c>
+      <c r="I196" t="n">
+        <v>-19.23076857003913</v>
+      </c>
+      <c r="J196" t="n">
+        <v>42</v>
+      </c>
+      <c r="K196" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>9</v>
+      </c>
+      <c r="M196" t="n">
+        <v>-1.357467492455233</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.8380411565958781</v>
+      </c>
+      <c r="O196" t="n">
+        <v>-12.69770884288976</v>
+      </c>
+      <c r="P196" t="n">
+        <v>-13.53574999948564</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1903</v>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="n">
+        <v>4.054601192474365</v>
+      </c>
+      <c r="E197" t="n">
+        <v>23.06828732764405</v>
+      </c>
+      <c r="F197" t="b">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>24.75745703974917</v>
+      </c>
+      <c r="H197" t="n">
+        <v>51</v>
+      </c>
+      <c r="I197" t="n">
+        <v>-2.75230438740273</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>24</v>
+      </c>
+      <c r="M197" t="n">
+        <v>2.522922481937502</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1.689169712105123</v>
+      </c>
+      <c r="O197" t="n">
+        <v>-20.54536484570654</v>
+      </c>
+      <c r="P197" t="n">
+        <v>-22.23453455781167</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1911</v>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="n">
+        <v>4.705568313598633</v>
+      </c>
+      <c r="E198" t="n">
+        <v>14.5680833116815</v>
+      </c>
+      <c r="F198" t="b">
+        <v>1</v>
+      </c>
+      <c r="G198" t="n">
+        <v>17.47906972290965</v>
+      </c>
+      <c r="H198" t="n">
+        <v>50</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-16.00789640241052</v>
+      </c>
+      <c r="J198" t="n">
+        <v>8</v>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>16</v>
+      </c>
+      <c r="M198" t="n">
+        <v>-11.66007248265455</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2.910986411228157</v>
+      </c>
+      <c r="O198" t="n">
+        <v>-26.22815579433604</v>
+      </c>
+      <c r="P198" t="n">
+        <v>-29.1391422055642</v>
       </c>
     </row>
   </sheetData>
@@ -7607,7 +9937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7820,40 +10150,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.950529648855589</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.971696671775392</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.73244666925521</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.20837249397483</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-8.973467205364274</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.257842845119244</v>
+      </c>
+      <c r="J4" t="n">
+        <v>69.38775510204081</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.73529411764706</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23.52941176470588</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-6.592648481873469</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>78.8</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>9.281238607862621</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>11.69670344013102</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>20.60350680927767</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>19.62549343193238</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-11.04341136713905</v>
       </c>
     </row>
